--- a/results/RV_Predict_IDoFT(NOD)_dataset.xlsx
+++ b/results/RV_Predict_IDoFT(NOD)_dataset.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chormeDownloads\results-20211212T013304Z-001\ECE-Software-Testing\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5715"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1003,33 +1011,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial&quot;"/>
     </font>
@@ -1039,7 +1052,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1049,50 +1062,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1282,27 +1290,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="76.71"/>
-    <col customWidth="1" min="2" max="2" width="47.14"/>
-    <col customWidth="1" min="3" max="3" width="89.43"/>
-    <col customWidth="1" min="4" max="4" width="97.29"/>
-    <col customWidth="1" min="5" max="6" width="65.29"/>
+    <col min="1" max="1" width="76.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" customWidth="1"/>
+    <col min="4" max="4" width="97.28515625" customWidth="1"/>
+    <col min="5" max="6" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +1431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -1650,7 +1661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -1734,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -1762,7 +1773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -1776,7 +1787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -1804,7 +1815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +1843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>65</v>
       </c>
@@ -1902,7 +1913,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>65</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>65</v>
       </c>
@@ -1930,7 +1941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>65</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>65</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
@@ -2000,7 +2011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
@@ -2014,7 +2025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -2028,7 +2039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
@@ -2070,7 +2081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>65</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
@@ -2140,7 +2151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -2154,7 +2165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
@@ -2168,7 +2179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -2182,7 +2193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2238,7 +2249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>97</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>100</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>103</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>103</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>103</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>103</v>
       </c>
@@ -2322,7 +2333,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>103</v>
       </c>
@@ -2336,7 +2347,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>115</v>
       </c>
@@ -2350,7 +2361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>115</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>115</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>115</v>
       </c>
@@ -2406,7 +2417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>115</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>115</v>
       </c>
@@ -2449,7 +2460,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>115</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>115</v>
       </c>
@@ -2477,7 +2488,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>115</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>115</v>
       </c>
@@ -2505,7 +2516,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>115</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
         <v>115</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2558,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>115</v>
       </c>
@@ -2561,7 +2572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>115</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>115</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>115</v>
       </c>
@@ -2603,7 +2614,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>115</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>115</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>115</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
         <v>115</v>
       </c>
@@ -2659,7 +2670,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>115</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>115</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>115</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>115</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>148</v>
       </c>
@@ -2729,7 +2740,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>152</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>152</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>152</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>152</v>
       </c>
@@ -2785,7 +2796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>152</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>161</v>
       </c>
@@ -2813,7 +2824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
         <v>161</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
         <v>161</v>
       </c>
@@ -2841,7 +2852,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
         <v>161</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
         <v>169</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
         <v>173</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
         <v>177</v>
       </c>
@@ -2897,7 +2908,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
         <v>177</v>
       </c>
@@ -2911,7 +2922,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
         <v>177</v>
       </c>
@@ -2925,7 +2936,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
         <v>183</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
         <v>187</v>
       </c>
@@ -2953,7 +2964,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
         <v>191</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
         <v>195</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>199</v>
       </c>
@@ -2995,7 +3006,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>199</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>199</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
         <v>206</v>
       </c>
@@ -3051,7 +3062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
         <v>206</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
         <v>210</v>
       </c>
@@ -3079,7 +3090,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
         <v>210</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
         <v>210</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
         <v>210</v>
       </c>
@@ -3121,7 +3132,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
         <v>210</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
         <v>210</v>
       </c>
@@ -3149,7 +3160,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
         <v>210</v>
       </c>
@@ -3163,7 +3174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
         <v>222</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
         <v>226</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4">
       <c r="A135" s="3" t="s">
         <v>226</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>226</v>
       </c>
@@ -3219,7 +3230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
         <v>226</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
         <v>226</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
         <v>234</v>
       </c>
@@ -3261,7 +3272,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
         <v>238</v>
       </c>
@@ -3275,7 +3286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
         <v>242</v>
       </c>
@@ -3289,7 +3300,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
         <v>242</v>
       </c>
@@ -3303,7 +3314,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
         <v>242</v>
       </c>
@@ -3317,7 +3328,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
         <v>242</v>
       </c>
@@ -3331,7 +3342,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6">
       <c r="A145" s="4" t="s">
         <v>250</v>
       </c>
@@ -3351,7 +3362,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6">
       <c r="A146" s="4" t="s">
         <v>250</v>
       </c>
@@ -3371,7 +3382,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6">
       <c r="A147" s="4" t="s">
         <v>250</v>
       </c>
@@ -3391,7 +3402,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6">
       <c r="A148" s="4" t="s">
         <v>250</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6">
       <c r="A149" s="4" t="s">
         <v>250</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6">
       <c r="A150" s="4" t="s">
         <v>250</v>
       </c>
@@ -3451,7 +3462,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6">
       <c r="A151" s="4" t="s">
         <v>250</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6">
       <c r="A152" s="4" t="s">
         <v>250</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6">
       <c r="A153" s="4" t="s">
         <v>250</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6">
       <c r="A154" s="4" t="s">
         <v>250</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6">
       <c r="A155" s="4" t="s">
         <v>250</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:6">
       <c r="A156" s="4" t="s">
         <v>250</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6">
       <c r="A157" s="4" t="s">
         <v>250</v>
       </c>
@@ -3591,7 +3602,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6">
       <c r="A158" s="4" t="s">
         <v>250</v>
       </c>
@@ -3611,7 +3622,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6">
       <c r="A159" s="4" t="s">
         <v>250</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6">
       <c r="A160" s="4" t="s">
         <v>250</v>
       </c>
@@ -3651,7 +3662,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6">
       <c r="A161" s="4" t="s">
         <v>250</v>
       </c>
@@ -3671,7 +3682,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6">
       <c r="A162" s="4" t="s">
         <v>250</v>
       </c>
@@ -3691,7 +3702,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6">
       <c r="A163" s="4" t="s">
         <v>250</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6">
       <c r="A164" s="4" t="s">
         <v>250</v>
       </c>
@@ -3731,7 +3742,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:6">
       <c r="A165" s="4" t="s">
         <v>250</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6">
       <c r="A166" s="4" t="s">
         <v>250</v>
       </c>
@@ -3771,7 +3782,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6">
       <c r="A167" s="4" t="s">
         <v>276</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6">
       <c r="A168" s="4" t="s">
         <v>276</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6">
       <c r="A169" s="4" t="s">
         <v>282</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6">
       <c r="A170" s="4" t="s">
         <v>282</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:6">
       <c r="A171" s="4" t="s">
         <v>282</v>
       </c>
@@ -3841,7 +3852,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6">
       <c r="A172" s="4" t="s">
         <v>282</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6">
       <c r="A173" s="4" t="s">
         <v>282</v>
       </c>
@@ -3871,7 +3882,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6">
       <c r="A174" s="4" t="s">
         <v>282</v>
       </c>
@@ -3885,7 +3896,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6">
       <c r="A175" s="4" t="s">
         <v>290</v>
       </c>
@@ -3901,7 +3912,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6">
       <c r="A176" s="4" t="s">
         <v>290</v>
       </c>
@@ -3915,7 +3926,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4">
       <c r="A177" s="4" t="s">
         <v>290</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4">
       <c r="A178" s="4" t="s">
         <v>290</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4">
       <c r="A179" s="4" t="s">
         <v>290</v>
       </c>
@@ -3957,7 +3968,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4">
       <c r="A180" s="4" t="s">
         <v>290</v>
       </c>
@@ -3971,7 +3982,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4">
       <c r="A181" s="4" t="s">
         <v>290</v>
       </c>
@@ -3985,7 +3996,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4">
       <c r="A182" s="4" t="s">
         <v>299</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4">
       <c r="A183" s="4" t="s">
         <v>299</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4">
       <c r="A184" s="4" t="s">
         <v>299</v>
       </c>
@@ -4027,7 +4038,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4">
       <c r="A185" s="4" t="s">
         <v>299</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4">
       <c r="A186" s="4" t="s">
         <v>299</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4">
       <c r="A187" s="4" t="s">
         <v>309</v>
       </c>
@@ -4069,7 +4080,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4">
       <c r="A188" s="4" t="s">
         <v>309</v>
       </c>
@@ -4083,7 +4094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4">
       <c r="A189" s="4" t="s">
         <v>315</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4">
       <c r="A190" s="4" t="s">
         <v>319</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4">
       <c r="A191" s="3" t="s">
         <v>323</v>
       </c>
@@ -4125,7 +4136,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>323</v>
       </c>
@@ -4141,198 +4152,198 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A57"/>
-    <hyperlink r:id="rId57" ref="A58"/>
-    <hyperlink r:id="rId58" ref="A59"/>
-    <hyperlink r:id="rId59" ref="A60"/>
-    <hyperlink r:id="rId60" ref="A61"/>
-    <hyperlink r:id="rId61" ref="A62"/>
-    <hyperlink r:id="rId62" ref="A63"/>
-    <hyperlink r:id="rId63" ref="A64"/>
-    <hyperlink r:id="rId64" ref="A65"/>
-    <hyperlink r:id="rId65" ref="A66"/>
-    <hyperlink r:id="rId66" ref="A67"/>
-    <hyperlink r:id="rId67" ref="A68"/>
-    <hyperlink r:id="rId68" ref="A69"/>
-    <hyperlink r:id="rId69" ref="A70"/>
-    <hyperlink r:id="rId70" ref="A71"/>
-    <hyperlink r:id="rId71" ref="A72"/>
-    <hyperlink r:id="rId72" ref="A73"/>
-    <hyperlink r:id="rId73" ref="A74"/>
-    <hyperlink r:id="rId74" ref="A75"/>
-    <hyperlink r:id="rId75" ref="A76"/>
-    <hyperlink r:id="rId76" ref="A77"/>
-    <hyperlink r:id="rId77" ref="A78"/>
-    <hyperlink r:id="rId78" ref="A79"/>
-    <hyperlink r:id="rId79" ref="A80"/>
-    <hyperlink r:id="rId80" ref="A81"/>
-    <hyperlink r:id="rId81" ref="A82"/>
-    <hyperlink r:id="rId82" ref="A83"/>
-    <hyperlink r:id="rId83" ref="A84"/>
-    <hyperlink r:id="rId84" ref="A85"/>
-    <hyperlink r:id="rId85" ref="A86"/>
-    <hyperlink r:id="rId86" ref="A87"/>
-    <hyperlink r:id="rId87" ref="A88"/>
-    <hyperlink r:id="rId88" ref="A89"/>
-    <hyperlink r:id="rId89" ref="A90"/>
-    <hyperlink r:id="rId90" ref="A91"/>
-    <hyperlink r:id="rId91" ref="A92"/>
-    <hyperlink r:id="rId92" ref="A93"/>
-    <hyperlink r:id="rId93" ref="A94"/>
-    <hyperlink r:id="rId94" ref="A95"/>
-    <hyperlink r:id="rId95" ref="A96"/>
-    <hyperlink r:id="rId96" ref="A97"/>
-    <hyperlink r:id="rId97" ref="A98"/>
-    <hyperlink r:id="rId98" ref="A99"/>
-    <hyperlink r:id="rId99" ref="A100"/>
-    <hyperlink r:id="rId100" ref="A101"/>
-    <hyperlink r:id="rId101" ref="A102"/>
-    <hyperlink r:id="rId102" ref="A103"/>
-    <hyperlink r:id="rId103" ref="A104"/>
-    <hyperlink r:id="rId104" ref="A105"/>
-    <hyperlink r:id="rId105" ref="A106"/>
-    <hyperlink r:id="rId106" ref="A107"/>
-    <hyperlink r:id="rId107" ref="A108"/>
-    <hyperlink r:id="rId108" ref="A109"/>
-    <hyperlink r:id="rId109" ref="A110"/>
-    <hyperlink r:id="rId110" ref="A111"/>
-    <hyperlink r:id="rId111" ref="A112"/>
-    <hyperlink r:id="rId112" ref="A113"/>
-    <hyperlink r:id="rId113" ref="A114"/>
-    <hyperlink r:id="rId114" ref="A115"/>
-    <hyperlink r:id="rId115" ref="A116"/>
-    <hyperlink r:id="rId116" ref="A117"/>
-    <hyperlink r:id="rId117" ref="A118"/>
-    <hyperlink r:id="rId118" ref="A119"/>
-    <hyperlink r:id="rId119" ref="A120"/>
-    <hyperlink r:id="rId120" ref="A121"/>
-    <hyperlink r:id="rId121" ref="A122"/>
-    <hyperlink r:id="rId122" ref="A123"/>
-    <hyperlink r:id="rId123" ref="A124"/>
-    <hyperlink r:id="rId124" ref="A125"/>
-    <hyperlink r:id="rId125" ref="A126"/>
-    <hyperlink r:id="rId126" ref="A127"/>
-    <hyperlink r:id="rId127" ref="A128"/>
-    <hyperlink r:id="rId128" ref="A129"/>
-    <hyperlink r:id="rId129" ref="A130"/>
-    <hyperlink r:id="rId130" ref="A131"/>
-    <hyperlink r:id="rId131" ref="A132"/>
-    <hyperlink r:id="rId132" ref="A133"/>
-    <hyperlink r:id="rId133" ref="A134"/>
-    <hyperlink r:id="rId134" ref="A135"/>
-    <hyperlink r:id="rId135" ref="A136"/>
-    <hyperlink r:id="rId136" ref="A137"/>
-    <hyperlink r:id="rId137" ref="A138"/>
-    <hyperlink r:id="rId138" ref="A139"/>
-    <hyperlink r:id="rId139" ref="A140"/>
-    <hyperlink r:id="rId140" ref="A141"/>
-    <hyperlink r:id="rId141" ref="A142"/>
-    <hyperlink r:id="rId142" ref="A143"/>
-    <hyperlink r:id="rId143" ref="A144"/>
-    <hyperlink r:id="rId144" ref="A145"/>
-    <hyperlink r:id="rId145" ref="A146"/>
-    <hyperlink r:id="rId146" ref="A147"/>
-    <hyperlink r:id="rId147" ref="A148"/>
-    <hyperlink r:id="rId148" ref="A149"/>
-    <hyperlink r:id="rId149" ref="A150"/>
-    <hyperlink r:id="rId150" ref="A151"/>
-    <hyperlink r:id="rId151" ref="A152"/>
-    <hyperlink r:id="rId152" ref="A153"/>
-    <hyperlink r:id="rId153" ref="A154"/>
-    <hyperlink r:id="rId154" ref="A155"/>
-    <hyperlink r:id="rId155" ref="A156"/>
-    <hyperlink r:id="rId156" ref="A157"/>
-    <hyperlink r:id="rId157" ref="A158"/>
-    <hyperlink r:id="rId158" ref="A159"/>
-    <hyperlink r:id="rId159" ref="A160"/>
-    <hyperlink r:id="rId160" ref="A161"/>
-    <hyperlink r:id="rId161" ref="A162"/>
-    <hyperlink r:id="rId162" ref="A163"/>
-    <hyperlink r:id="rId163" ref="A164"/>
-    <hyperlink r:id="rId164" ref="A165"/>
-    <hyperlink r:id="rId165" ref="A166"/>
-    <hyperlink r:id="rId166" ref="A167"/>
-    <hyperlink r:id="rId167" ref="A168"/>
-    <hyperlink r:id="rId168" ref="A169"/>
-    <hyperlink r:id="rId169" ref="A170"/>
-    <hyperlink r:id="rId170" ref="A171"/>
-    <hyperlink r:id="rId171" ref="A172"/>
-    <hyperlink r:id="rId172" ref="A173"/>
-    <hyperlink r:id="rId173" ref="A174"/>
-    <hyperlink r:id="rId174" ref="A175"/>
-    <hyperlink r:id="rId175" ref="A176"/>
-    <hyperlink r:id="rId176" ref="A177"/>
-    <hyperlink r:id="rId177" ref="A178"/>
-    <hyperlink r:id="rId178" ref="A179"/>
-    <hyperlink r:id="rId179" ref="A180"/>
-    <hyperlink r:id="rId180" ref="A181"/>
-    <hyperlink r:id="rId181" ref="A182"/>
-    <hyperlink r:id="rId182" ref="A183"/>
-    <hyperlink r:id="rId183" ref="A184"/>
-    <hyperlink r:id="rId184" ref="A185"/>
-    <hyperlink r:id="rId185" ref="A186"/>
-    <hyperlink r:id="rId186" ref="A187"/>
-    <hyperlink r:id="rId187" ref="A188"/>
-    <hyperlink r:id="rId188" ref="A189"/>
-    <hyperlink r:id="rId189" ref="A190"/>
-    <hyperlink r:id="rId190" ref="A191"/>
-    <hyperlink r:id="rId191" ref="A192"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
   </hyperlinks>
-  <drawing r:id="rId192"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>